--- a/sample.xlsx
+++ b/sample.xlsx
@@ -415,12 +415,12 @@
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>S_i</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>pi_ij</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>S_i</t>
         </is>
       </c>
     </row>
@@ -463,10 +463,10 @@
         <v>5.033221123989189</v>
       </c>
       <c r="L2">
+        <v>1.34500506230837</v>
+      </c>
+      <c r="M2">
         <v>0.3560491898015857</v>
-      </c>
-      <c r="M2">
-        <v>1.34500506230837</v>
       </c>
     </row>
     <row r="3">
@@ -508,10 +508,10 @@
         <v>7.811709119669064</v>
       </c>
       <c r="L3">
+        <v>2.195833495081968</v>
+      </c>
+      <c r="M3">
         <v>0.6907608859996458</v>
-      </c>
-      <c r="M3">
-        <v>2.195833495081968</v>
       </c>
     </row>
     <row r="4">
@@ -553,10 +553,10 @@
         <v>7.867004136244687</v>
       </c>
       <c r="L4">
+        <v>2.923035284378024</v>
+      </c>
+      <c r="M4">
         <v>0.3795520420812715</v>
-      </c>
-      <c r="M4">
-        <v>2.923035284378024</v>
       </c>
     </row>
     <row r="5">
@@ -598,10 +598,10 @@
         <v>10.92066372540615</v>
       </c>
       <c r="L5">
+        <v>3.666704720512436</v>
+      </c>
+      <c r="M5">
         <v>0.4929591716088889</v>
-      </c>
-      <c r="M5">
-        <v>3.666704720512436</v>
       </c>
     </row>
     <row r="6">
@@ -643,10 +643,10 @@
         <v>10.32150990243152</v>
       </c>
       <c r="L6">
+        <v>1.869498397456427</v>
+      </c>
+      <c r="M6">
         <v>0.6771661247679462</v>
-      </c>
-      <c r="M6">
-        <v>1.869498397456427</v>
       </c>
     </row>
     <row r="7">
@@ -688,10 +688,10 @@
         <v>10.4154691496963</v>
       </c>
       <c r="L7">
+        <v>1.596580571274171</v>
+      </c>
+      <c r="M7">
         <v>0.5080785761963192</v>
-      </c>
-      <c r="M7">
-        <v>1.596580571274171</v>
       </c>
     </row>
     <row r="8">
@@ -733,10 +733,10 @@
         <v>11.32294307076384</v>
       </c>
       <c r="L8">
+        <v>2.431184583093056</v>
+      </c>
+      <c r="M8">
         <v>0.1917089569249553</v>
-      </c>
-      <c r="M8">
-        <v>2.431184583093056</v>
       </c>
     </row>
     <row r="9">
@@ -778,10 +778,10 @@
         <v>4.322101247490338</v>
       </c>
       <c r="L9">
+        <v>1.851542443097899</v>
+      </c>
+      <c r="M9">
         <v>0.2092529809640788</v>
-      </c>
-      <c r="M9">
-        <v>1.851542443097899</v>
       </c>
     </row>
     <row r="10">
@@ -823,10 +823,10 @@
         <v>10.00628015682746</v>
       </c>
       <c r="L10">
+        <v>2.550556141662226</v>
+      </c>
+      <c r="M10">
         <v>0.4264872700548309</v>
-      </c>
-      <c r="M10">
-        <v>2.550556141662226</v>
       </c>
     </row>
     <row r="11">
@@ -868,10 +868,10 @@
         <v>14.71894798188444</v>
       </c>
       <c r="L11">
+        <v>2.750600649797019</v>
+      </c>
+      <c r="M11">
         <v>0.1917668086695493</v>
-      </c>
-      <c r="M11">
-        <v>2.750600649797019</v>
       </c>
     </row>
     <row r="12">
@@ -913,10 +913,10 @@
         <v>9.558632809590966</v>
       </c>
       <c r="L12">
+        <v>2.770239526489727</v>
+      </c>
+      <c r="M12">
         <v>0.3209874353744993</v>
-      </c>
-      <c r="M12">
-        <v>2.770239526489727</v>
       </c>
     </row>
     <row r="13">
@@ -958,10 +958,10 @@
         <v>7.880812539818971</v>
       </c>
       <c r="L13">
+        <v>1.600357775092295</v>
+      </c>
+      <c r="M13">
         <v>0.4043563822702481</v>
-      </c>
-      <c r="M13">
-        <v>1.600357775092295</v>
       </c>
     </row>
     <row r="14">
@@ -1003,10 +1003,10 @@
         <v>5.475207039068142</v>
       </c>
       <c r="L14">
+        <v>1.350764558945041</v>
+      </c>
+      <c r="M14">
         <v>0.418539020319033</v>
-      </c>
-      <c r="M14">
-        <v>1.350764558945041</v>
       </c>
     </row>
     <row r="15">
@@ -1048,10 +1048,10 @@
         <v>2.43724515948041</v>
       </c>
       <c r="L15">
+        <v>2.025986572473288</v>
+      </c>
+      <c r="M15">
         <v>0.3853734671627302</v>
-      </c>
-      <c r="M15">
-        <v>2.025986572473288</v>
       </c>
     </row>
     <row r="16">
@@ -1093,10 +1093,10 @@
         <v>4.989452412647309</v>
       </c>
       <c r="L16">
+        <v>3.017487262468767</v>
+      </c>
+      <c r="M16">
         <v>0.1769486667957952</v>
-      </c>
-      <c r="M16">
-        <v>3.017487262468767</v>
       </c>
     </row>
   </sheetData>

--- a/sample.xlsx
+++ b/sample.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,60 +365,75 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Tract</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>S_ij</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>qij_18</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>qij_45</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>qij_65</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>BlockGroup</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Tract</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Qij</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Qij_18</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Qij_45</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Qij_65</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>S_ij</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>qij_18</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>qij_45</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>qij_65</t>
-        </is>
-      </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
+          <t>pi_ijk_18</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>pi_ijk_45</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>pi_ijk_65</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>S_i</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>pi_ij</t>
         </is>
@@ -430,42 +445,51 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>24033800211</t>
+        </is>
+      </c>
+      <c r="C2">
+        <v>0.4788879627139266</v>
+      </c>
+      <c r="D2">
+        <v>13.72173283999927</v>
+      </c>
+      <c r="E2">
+        <v>9.723103925834137</v>
+      </c>
+      <c r="F2">
+        <v>5.033221123989189</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>240338002111</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>24033800211</t>
-        </is>
-      </c>
-      <c r="D2">
+      <c r="H2">
         <v>900</v>
       </c>
-      <c r="E2">
+      <c r="I2">
         <v>524</v>
       </c>
-      <c r="F2">
+      <c r="J2">
         <v>281</v>
       </c>
-      <c r="G2">
+      <c r="K2">
         <v>95</v>
       </c>
-      <c r="H2">
-        <v>0.4788879627139266</v>
-      </c>
-      <c r="I2">
-        <v>13.72173283999927</v>
-      </c>
-      <c r="J2">
-        <v>9.723103925834137</v>
-      </c>
-      <c r="K2">
-        <v>5.033221123989189</v>
-      </c>
       <c r="L2">
+        <v>2.618651305343373</v>
+      </c>
+      <c r="M2">
+        <v>3.460179333037059</v>
+      </c>
+      <c r="N2">
+        <v>5.298127498935988</v>
+      </c>
+      <c r="O2">
         <v>1.34500506230837</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>0.3560491898015857</v>
       </c>
     </row>
@@ -475,42 +499,51 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>24033800411</t>
+        </is>
+      </c>
+      <c r="C3">
+        <v>1.516795890570519</v>
+      </c>
+      <c r="D3">
+        <v>10.61572045301254</v>
+      </c>
+      <c r="E3">
+        <v>10.05062831714099</v>
+      </c>
+      <c r="F3">
+        <v>7.811709119669064</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>240338004111</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>24033800411</t>
-        </is>
-      </c>
-      <c r="D3">
+      <c r="H3">
         <v>2671</v>
       </c>
-      <c r="E3">
+      <c r="I3">
         <v>1284</v>
       </c>
-      <c r="F3">
+      <c r="J3">
         <v>920</v>
       </c>
-      <c r="G3">
+      <c r="K3">
         <v>467</v>
       </c>
-      <c r="H3">
-        <v>1.516795890570519</v>
-      </c>
-      <c r="I3">
-        <v>10.61572045301254</v>
-      </c>
-      <c r="J3">
-        <v>10.05062831714099</v>
-      </c>
-      <c r="K3">
-        <v>7.811709119669064</v>
-      </c>
       <c r="L3">
+        <v>0.8267695056863349</v>
+      </c>
+      <c r="M3">
+        <v>1.092459599689238</v>
+      </c>
+      <c r="N3">
+        <v>1.67274285217753</v>
+      </c>
+      <c r="O3">
         <v>2.195833495081968</v>
       </c>
-      <c r="M3">
+      <c r="P3">
         <v>0.6907608859996458</v>
       </c>
     </row>
@@ -520,42 +553,51 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>24033800519</t>
+        </is>
+      </c>
+      <c r="C4">
+        <v>1.109444011261289</v>
+      </c>
+      <c r="D4">
+        <v>9.946925728848374</v>
+      </c>
+      <c r="E4">
+        <v>10.66412802472954</v>
+      </c>
+      <c r="F4">
+        <v>7.867004136244687</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>240338005194</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>24033800519</t>
-        </is>
-      </c>
-      <c r="D4">
+      <c r="H4">
         <v>1938</v>
       </c>
-      <c r="E4">
+      <c r="I4">
         <v>880</v>
       </c>
-      <c r="F4">
+      <c r="J4">
         <v>714</v>
       </c>
-      <c r="G4">
+      <c r="K4">
         <v>344</v>
       </c>
-      <c r="H4">
-        <v>1.109444011261289</v>
-      </c>
-      <c r="I4">
-        <v>9.946925728848374</v>
-      </c>
-      <c r="J4">
-        <v>10.66412802472954</v>
-      </c>
-      <c r="K4">
-        <v>7.867004136244687</v>
-      </c>
       <c r="L4">
+        <v>1.130332469187315</v>
+      </c>
+      <c r="M4">
+        <v>1.493575353603577</v>
+      </c>
+      <c r="N4">
+        <v>2.286919807047874</v>
+      </c>
+      <c r="O4">
         <v>2.923035284378024</v>
       </c>
-      <c r="M4">
+      <c r="P4">
         <v>0.3795520420812715</v>
       </c>
     </row>
@@ -565,42 +607,51 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>24033800706</t>
+        </is>
+      </c>
+      <c r="C5">
+        <v>1.807535721558213</v>
+      </c>
+      <c r="D5">
+        <v>6.84071692573072</v>
+      </c>
+      <c r="E5">
+        <v>10.71667723868573</v>
+      </c>
+      <c r="F5">
+        <v>10.92066372540615</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>240338007063</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>24033800706</t>
-        </is>
-      </c>
-      <c r="D5">
+      <c r="H5">
         <v>2933</v>
       </c>
-      <c r="E5">
+      <c r="I5">
         <v>986</v>
       </c>
-      <c r="F5">
+      <c r="J5">
         <v>1169</v>
       </c>
-      <c r="G5">
+      <c r="K5">
         <v>778</v>
       </c>
-      <c r="H5">
-        <v>1.807535721558213</v>
-      </c>
-      <c r="I5">
-        <v>6.84071692573072</v>
-      </c>
-      <c r="J5">
-        <v>10.71667723868573</v>
-      </c>
-      <c r="K5">
-        <v>10.92066372540615</v>
-      </c>
       <c r="L5">
+        <v>0.693784678065996</v>
+      </c>
+      <c r="M5">
+        <v>0.9167388570304305</v>
+      </c>
+      <c r="N5">
+        <v>1.403684283471227</v>
+      </c>
+      <c r="O5">
         <v>3.666704720512436</v>
       </c>
-      <c r="M5">
+      <c r="P5">
         <v>0.4929591716088889</v>
       </c>
     </row>
@@ -610,42 +661,51 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>24033801213</t>
+        </is>
+      </c>
+      <c r="C6">
+        <v>1.265960985065454</v>
+      </c>
+      <c r="D6">
+        <v>8.588362542027225</v>
+      </c>
+      <c r="E6">
+        <v>9.568185445363854</v>
+      </c>
+      <c r="F6">
+        <v>10.32150990243152</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>240338012132</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>24033801213</t>
-        </is>
-      </c>
-      <c r="D6">
+      <c r="H6">
         <v>2113</v>
       </c>
-      <c r="E6">
+      <c r="I6">
         <v>867</v>
       </c>
-      <c r="F6">
+      <c r="J6">
         <v>731</v>
       </c>
-      <c r="G6">
+      <c r="K6">
         <v>515</v>
       </c>
-      <c r="H6">
-        <v>1.265960985065454</v>
-      </c>
-      <c r="I6">
-        <v>8.588362542027225</v>
-      </c>
-      <c r="J6">
-        <v>9.568185445363854</v>
-      </c>
-      <c r="K6">
-        <v>10.32150990243152</v>
-      </c>
       <c r="L6">
+        <v>0.9905839148820329</v>
+      </c>
+      <c r="M6">
+        <v>1.308917297587395</v>
+      </c>
+      <c r="N6">
+        <v>2.00417668008379</v>
+      </c>
+      <c r="O6">
         <v>1.869498397456427</v>
       </c>
-      <c r="M6">
+      <c r="P6">
         <v>0.6771661247679462</v>
       </c>
     </row>
@@ -655,42 +715,51 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>24033801313</t>
+        </is>
+      </c>
+      <c r="C7">
+        <v>0.811188383435687</v>
+      </c>
+      <c r="D7">
+        <v>8.502615888673061</v>
+      </c>
+      <c r="E7">
+        <v>9.55997285145324</v>
+      </c>
+      <c r="F7">
+        <v>10.4154691496963</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>240338013132</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>24033801313</t>
-        </is>
-      </c>
-      <c r="D7">
+      <c r="H7">
         <v>1351</v>
       </c>
-      <c r="E7">
+      <c r="I7">
         <v>550</v>
       </c>
-      <c r="F7">
+      <c r="J7">
         <v>468</v>
       </c>
-      <c r="G7">
+      <c r="K7">
         <v>333</v>
       </c>
-      <c r="H7">
-        <v>0.811188383435687</v>
-      </c>
-      <c r="I7">
-        <v>8.502615888673061</v>
-      </c>
-      <c r="J7">
-        <v>9.55997285145324</v>
-      </c>
-      <c r="K7">
-        <v>10.4154691496963</v>
-      </c>
       <c r="L7">
+        <v>1.54593016157692</v>
+      </c>
+      <c r="M7">
+        <v>2.042729241763513</v>
+      </c>
+      <c r="N7">
+        <v>3.127768513422312</v>
+      </c>
+      <c r="O7">
         <v>1.596580571274171</v>
       </c>
-      <c r="M7">
+      <c r="P7">
         <v>0.5080785761963192</v>
       </c>
     </row>
@@ -700,42 +769,51 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>24033801709</t>
+        </is>
+      </c>
+      <c r="C8">
+        <v>0.4660798605168022</v>
+      </c>
+      <c r="D8">
+        <v>9.013553959185989</v>
+      </c>
+      <c r="E8">
+        <v>8.14156085987277</v>
+      </c>
+      <c r="F8">
+        <v>11.32294307076384</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>240338017093</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>24033801709</t>
-        </is>
-      </c>
-      <c r="D8">
+      <c r="H8">
         <v>772</v>
       </c>
-      <c r="E8">
+      <c r="I8">
         <v>335</v>
       </c>
-      <c r="F8">
+      <c r="J8">
         <v>229</v>
       </c>
-      <c r="G8">
+      <c r="K8">
         <v>208</v>
       </c>
-      <c r="H8">
-        <v>0.4660798605168022</v>
-      </c>
-      <c r="I8">
-        <v>9.013553959185989</v>
-      </c>
-      <c r="J8">
-        <v>8.14156085987277</v>
-      </c>
-      <c r="K8">
-        <v>11.32294307076384</v>
-      </c>
       <c r="L8">
+        <v>2.690613122145071</v>
+      </c>
+      <c r="M8">
+        <v>3.555266751036144</v>
+      </c>
+      <c r="N8">
+        <v>5.443722630174922</v>
+      </c>
+      <c r="O8">
         <v>2.431184583093056</v>
       </c>
-      <c r="M8">
+      <c r="P8">
         <v>0.1917089569249553</v>
       </c>
     </row>
@@ -745,42 +823,51 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>24033802106</t>
+        </is>
+      </c>
+      <c r="C9">
+        <v>0.3874407755997485</v>
+      </c>
+      <c r="D9">
+        <v>15.7305003623368</v>
+      </c>
+      <c r="E9">
+        <v>8.425456279995458</v>
+      </c>
+      <c r="F9">
+        <v>4.322101247490338</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>240338021061</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>24033802106</t>
-        </is>
-      </c>
-      <c r="D9">
+      <c r="H9">
         <v>749</v>
       </c>
-      <c r="E9">
+      <c r="I9">
         <v>486</v>
       </c>
-      <c r="F9">
+      <c r="J9">
         <v>197</v>
       </c>
-      <c r="G9">
+      <c r="K9">
         <v>66</v>
       </c>
-      <c r="H9">
-        <v>0.3874407755997485</v>
-      </c>
-      <c r="I9">
-        <v>15.7305003623368</v>
-      </c>
-      <c r="J9">
-        <v>8.425456279995458</v>
-      </c>
-      <c r="K9">
-        <v>4.322101247490338</v>
-      </c>
       <c r="L9">
+        <v>3.236728469616625</v>
+      </c>
+      <c r="M9">
+        <v>4.276881360403785</v>
+      </c>
+      <c r="N9">
+        <v>6.548638253773239</v>
+      </c>
+      <c r="O9">
         <v>1.851542443097899</v>
       </c>
-      <c r="M9">
+      <c r="P9">
         <v>0.2092529809640788</v>
       </c>
     </row>
@@ -790,42 +877,51 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>24033802804</t>
+        </is>
+      </c>
+      <c r="C10">
+        <v>1.087779725979106</v>
+      </c>
+      <c r="D10">
+        <v>9.07288414847177</v>
+      </c>
+      <c r="E10">
+        <v>9.398893584523369</v>
+      </c>
+      <c r="F10">
+        <v>10.00628015682746</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>240338028043</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>24033802804</t>
-        </is>
-      </c>
-      <c r="D10">
+      <c r="H10">
         <v>1833</v>
       </c>
-      <c r="E10">
+      <c r="I10">
         <v>787</v>
       </c>
-      <c r="F10">
+      <c r="J10">
         <v>617</v>
       </c>
-      <c r="G10">
+      <c r="K10">
         <v>429</v>
       </c>
-      <c r="H10">
-        <v>1.087779725979106</v>
-      </c>
-      <c r="I10">
-        <v>9.07288414847177</v>
-      </c>
-      <c r="J10">
-        <v>9.398893584523369</v>
-      </c>
-      <c r="K10">
-        <v>10.00628015682746</v>
-      </c>
       <c r="L10">
+        <v>1.152844237416997</v>
+      </c>
+      <c r="M10">
+        <v>1.523321488577531</v>
+      </c>
+      <c r="N10">
+        <v>2.332466237022717</v>
+      </c>
+      <c r="O10">
         <v>2.550556141662226</v>
       </c>
-      <c r="M10">
+      <c r="P10">
         <v>0.4264872700548309</v>
       </c>
     </row>
@@ -835,42 +931,51 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>24033803519</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>0.5274739085359629</v>
+      </c>
+      <c r="D11">
+        <v>6.942141515761008</v>
+      </c>
+      <c r="E11">
+        <v>6.816968392177155</v>
+      </c>
+      <c r="F11">
+        <v>14.71894798188444</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>240338035192</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>24033803519</t>
-        </is>
-      </c>
-      <c r="D11">
+      <c r="H11">
         <v>815</v>
       </c>
-      <c r="E11">
+      <c r="I11">
         <v>292</v>
       </c>
-      <c r="F11">
+      <c r="J11">
         <v>217</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>306</v>
       </c>
-      <c r="H11">
-        <v>0.5274739085359629</v>
-      </c>
-      <c r="I11">
-        <v>6.942141515761008</v>
-      </c>
-      <c r="J11">
-        <v>6.816968392177155</v>
-      </c>
-      <c r="K11">
-        <v>14.71894798188444</v>
-      </c>
       <c r="L11">
+        <v>2.377445724575688</v>
+      </c>
+      <c r="M11">
+        <v>3.141460088560901</v>
+      </c>
+      <c r="N11">
+        <v>4.810113719570077</v>
+      </c>
+      <c r="O11">
         <v>2.750600649797019</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>0.1917668086695493</v>
       </c>
     </row>
@@ -880,42 +985,51 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>24033803608</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>0.8892120809810048</v>
+      </c>
+      <c r="D12">
+        <v>8.856576586526698</v>
+      </c>
+      <c r="E12">
+        <v>10.06284849370493</v>
+      </c>
+      <c r="F12">
+        <v>9.558632809590966</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>240338036082</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>24033803608</t>
-        </is>
-      </c>
-      <c r="D12">
+      <c r="H12">
         <v>1503</v>
       </c>
-      <c r="E12">
+      <c r="I12">
         <v>628</v>
       </c>
-      <c r="F12">
+      <c r="J12">
         <v>540</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>335</v>
       </c>
-      <c r="H12">
-        <v>0.8892120809810048</v>
-      </c>
-      <c r="I12">
-        <v>8.856576586526698</v>
-      </c>
-      <c r="J12">
-        <v>10.06284849370493</v>
-      </c>
-      <c r="K12">
-        <v>9.558632809590966</v>
-      </c>
       <c r="L12">
+        <v>1.410282895943742</v>
+      </c>
+      <c r="M12">
+        <v>1.863490461797209</v>
+      </c>
+      <c r="N12">
+        <v>2.853323226743572</v>
+      </c>
+      <c r="O12">
         <v>2.770239526489727</v>
       </c>
-      <c r="M12">
+      <c r="P12">
         <v>0.3209874353744993</v>
       </c>
     </row>
@@ -925,42 +1039,51 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>24033804700</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>0.6471148802743837</v>
+      </c>
+      <c r="D13">
+        <v>11.04600059947819</v>
+      </c>
+      <c r="E13">
+        <v>9.55124475052544</v>
+      </c>
+      <c r="F13">
+        <v>7.880812539818971</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>240338047001</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>24033804700</t>
-        </is>
-      </c>
-      <c r="D13">
+      <c r="H13">
         <v>1144</v>
       </c>
-      <c r="E13">
+      <c r="I13">
         <v>570</v>
       </c>
-      <c r="F13">
+      <c r="J13">
         <v>373</v>
       </c>
-      <c r="G13">
+      <c r="K13">
         <v>201</v>
       </c>
-      <c r="H13">
-        <v>0.6471148802743837</v>
-      </c>
-      <c r="I13">
-        <v>11.04600059947819</v>
-      </c>
-      <c r="J13">
-        <v>9.55124475052544</v>
-      </c>
-      <c r="K13">
-        <v>7.880812539818971</v>
-      </c>
       <c r="L13">
+        <v>1.937894842013717</v>
+      </c>
+      <c r="M13">
+        <v>2.560655429095292</v>
+      </c>
+      <c r="N13">
+        <v>3.920802258616404</v>
+      </c>
+      <c r="O13">
         <v>1.600357775092295</v>
       </c>
-      <c r="M13">
+      <c r="P13">
         <v>0.4043563822702481</v>
       </c>
     </row>
@@ -970,42 +1093,51 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>24033805907</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>0.5653476751825279</v>
+      </c>
+      <c r="D14">
+        <v>14.88396029449693</v>
+      </c>
+      <c r="E14">
+        <v>8.118890556257526</v>
+      </c>
+      <c r="F14">
+        <v>5.475207039068142</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>240338059072</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>24033805907</t>
-        </is>
-      </c>
-      <c r="D14">
+      <c r="H14">
         <v>1070</v>
       </c>
-      <c r="E14">
+      <c r="I14">
         <v>671</v>
       </c>
-      <c r="F14">
+      <c r="J14">
         <v>277</v>
       </c>
-      <c r="G14">
+      <c r="K14">
         <v>122</v>
       </c>
-      <c r="H14">
-        <v>0.5653476751825279</v>
-      </c>
-      <c r="I14">
-        <v>14.88396029449693</v>
-      </c>
-      <c r="J14">
-        <v>8.118890556257526</v>
-      </c>
-      <c r="K14">
-        <v>5.475207039068142</v>
-      </c>
       <c r="L14">
+        <v>2.218175900819214</v>
+      </c>
+      <c r="M14">
+        <v>2.931007421031598</v>
+      </c>
+      <c r="N14">
+        <v>4.487874622187001</v>
+      </c>
+      <c r="O14">
         <v>1.350764558945041</v>
       </c>
-      <c r="M14">
+      <c r="P14">
         <v>0.418539020319033</v>
       </c>
     </row>
@@ -1015,42 +1147,51 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>24033806714</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>0.7807614698591672</v>
+      </c>
+      <c r="D15">
+        <v>17.10577786553391</v>
+      </c>
+      <c r="E15">
+        <v>8.935034864808285</v>
+      </c>
+      <c r="F15">
+        <v>2.43724515948041</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>240338067141</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>24033806714</t>
-        </is>
-      </c>
-      <c r="D15">
+      <c r="H15">
         <v>1561</v>
       </c>
-      <c r="E15">
+      <c r="I15">
         <v>1065</v>
       </c>
-      <c r="F15">
+      <c r="J15">
         <v>421</v>
       </c>
-      <c r="G15">
+      <c r="K15">
         <v>75</v>
       </c>
-      <c r="H15">
-        <v>0.7807614698591672</v>
-      </c>
-      <c r="I15">
-        <v>17.10577786553391</v>
-      </c>
-      <c r="J15">
-        <v>8.935034864808285</v>
-      </c>
-      <c r="K15">
-        <v>2.43724515948041</v>
-      </c>
       <c r="L15">
+        <v>1.606176325402245</v>
+      </c>
+      <c r="M15">
+        <v>2.122336072401018</v>
+      </c>
+      <c r="N15">
+        <v>3.249660212640547</v>
+      </c>
+      <c r="O15">
         <v>2.025986572473288</v>
       </c>
-      <c r="M15">
+      <c r="P15">
         <v>0.3853734671627302</v>
       </c>
     </row>
@@ -1060,42 +1201,51 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>24033807407</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>0.5339403481671421</v>
+      </c>
+      <c r="D16">
+        <v>15.07835211728032</v>
+      </c>
+      <c r="E16">
+        <v>8.410253359894968</v>
+      </c>
+      <c r="F16">
+        <v>4.989452412647309</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>240338074071</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>24033807407</t>
-        </is>
-      </c>
-      <c r="D16">
+      <c r="H16">
         <v>1018</v>
       </c>
-      <c r="E16">
+      <c r="I16">
         <v>642</v>
       </c>
-      <c r="F16">
+      <c r="J16">
         <v>271</v>
       </c>
-      <c r="G16">
+      <c r="K16">
         <v>105</v>
       </c>
-      <c r="H16">
-        <v>0.5339403481671421</v>
-      </c>
-      <c r="I16">
-        <v>15.07835211728032</v>
-      </c>
-      <c r="J16">
-        <v>8.410253359894968</v>
-      </c>
-      <c r="K16">
-        <v>4.989452412647309</v>
-      </c>
       <c r="L16">
+        <v>2.34865297776952</v>
+      </c>
+      <c r="M16">
+        <v>3.103414523946483</v>
+      </c>
+      <c r="N16">
+        <v>4.751859440616485</v>
+      </c>
+      <c r="O16">
         <v>3.017487262468767</v>
       </c>
-      <c r="M16">
+      <c r="P16">
         <v>0.1769486667957952</v>
       </c>
     </row>
